--- a/Code/Results/Cases/Case_1_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8650909063060996</v>
+        <v>1.084879506803141</v>
       </c>
       <c r="D2">
-        <v>1.026954000072844</v>
+        <v>1.038810547279591</v>
       </c>
       <c r="E2">
-        <v>0.8927084485692404</v>
+        <v>1.085398911711135</v>
       </c>
       <c r="F2">
-        <v>0.8947208639187788</v>
+        <v>1.091478575385711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039881951618153</v>
+        <v>1.038008778151634</v>
       </c>
       <c r="J2">
-        <v>0.8922204793098313</v>
+        <v>1.089737117956965</v>
       </c>
       <c r="K2">
-        <v>1.038050172554722</v>
+        <v>1.041597520056828</v>
       </c>
       <c r="L2">
-        <v>0.9058968017420354</v>
+        <v>1.088059443004813</v>
       </c>
       <c r="M2">
-        <v>0.9078718114449479</v>
+        <v>1.094123465823692</v>
       </c>
       <c r="N2">
-        <v>0.8934875347295705</v>
+        <v>1.091284669659058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9071404845240369</v>
+        <v>1.088975364921588</v>
       </c>
       <c r="D3">
-        <v>1.034140530506284</v>
+        <v>1.039552306659291</v>
       </c>
       <c r="E3">
-        <v>0.9297418333362085</v>
+        <v>1.08903124411268</v>
       </c>
       <c r="F3">
-        <v>0.9331097811898955</v>
+        <v>1.095186091022087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04552430529859</v>
+        <v>1.038397919137442</v>
       </c>
       <c r="J3">
-        <v>0.9305279728506616</v>
+        <v>1.093481699485741</v>
       </c>
       <c r="K3">
-        <v>1.044354445758298</v>
+        <v>1.042149549683819</v>
       </c>
       <c r="L3">
-        <v>0.9413602830614514</v>
+        <v>1.091504218873795</v>
       </c>
       <c r="M3">
-        <v>0.9446766699360558</v>
+        <v>1.097644451205149</v>
       </c>
       <c r="N3">
-        <v>0.9318494293051598</v>
+        <v>1.095034568923114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9296217046436757</v>
+        <v>1.091595031847798</v>
       </c>
       <c r="D4">
-        <v>1.038178785259811</v>
+        <v>1.040025909496182</v>
       </c>
       <c r="E4">
-        <v>0.9495856584645757</v>
+        <v>1.091353050600565</v>
       </c>
       <c r="F4">
-        <v>0.9536844957633035</v>
+        <v>1.097553529568642</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048594060361212</v>
+        <v>1.038642292731002</v>
       </c>
       <c r="J4">
-        <v>0.9510147277505837</v>
+        <v>1.095874777686565</v>
       </c>
       <c r="K4">
-        <v>1.047837268181619</v>
+        <v>1.04249973553488</v>
       </c>
       <c r="L4">
-        <v>0.9603331933693456</v>
+        <v>1.09370464723996</v>
       </c>
       <c r="M4">
-        <v>0.9643760324184455</v>
+        <v>1.099891189306663</v>
       </c>
       <c r="N4">
-        <v>0.9523652777469033</v>
+        <v>1.097431045569474</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9382948916665338</v>
+        <v>1.092689243563364</v>
       </c>
       <c r="D5">
-        <v>1.039770751034154</v>
+        <v>1.040223511489554</v>
       </c>
       <c r="E5">
-        <v>0.957247591172138</v>
+        <v>1.092322511795931</v>
       </c>
       <c r="F5">
-        <v>0.961627638128836</v>
+        <v>1.098541459665494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049784513736989</v>
+        <v>1.038743271890845</v>
       </c>
       <c r="J5">
-        <v>0.9589176918696299</v>
+        <v>1.09687388509596</v>
       </c>
       <c r="K5">
-        <v>1.049198574461013</v>
+        <v>1.042645297288717</v>
       </c>
       <c r="L5">
-        <v>0.9676525737473719</v>
+        <v>1.09462307074679</v>
       </c>
       <c r="M5">
-        <v>0.971975485922778</v>
+        <v>1.100828369573772</v>
       </c>
       <c r="N5">
-        <v>0.9602794649814812</v>
+        <v>1.098431571825989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9397121681927089</v>
+        <v>1.092872557105121</v>
       </c>
       <c r="D6">
-        <v>1.040032626578006</v>
+        <v>1.040256602390052</v>
       </c>
       <c r="E6">
-        <v>0.9584999025280609</v>
+        <v>1.092484905999227</v>
       </c>
       <c r="F6">
-        <v>0.9629258136790113</v>
+        <v>1.098706913167426</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049979270452005</v>
+        <v>1.038760124427132</v>
       </c>
       <c r="J6">
-        <v>0.9602090196291895</v>
+        <v>1.097041238741462</v>
       </c>
       <c r="K6">
-        <v>1.049421870777141</v>
+        <v>1.042669641262086</v>
       </c>
       <c r="L6">
-        <v>0.9688485433750663</v>
+        <v>1.094776894710153</v>
       </c>
       <c r="M6">
-        <v>0.9732171641734016</v>
+        <v>1.100985301333921</v>
       </c>
       <c r="N6">
-        <v>0.9615726265745769</v>
+        <v>1.098599163132864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9297403358806832</v>
+        <v>1.091609680334241</v>
       </c>
       <c r="D7">
-        <v>1.038200435501276</v>
+        <v>1.040028555729837</v>
       </c>
       <c r="E7">
-        <v>0.949690436726597</v>
+        <v>1.091366030351441</v>
       </c>
       <c r="F7">
-        <v>0.9537931255821315</v>
+        <v>1.097566758901082</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048610325013537</v>
+        <v>1.038643648888064</v>
       </c>
       <c r="J7">
-        <v>0.9511228291001047</v>
+        <v>1.095888154802663</v>
       </c>
       <c r="K7">
-        <v>1.047855825982077</v>
+        <v>1.042501687016725</v>
       </c>
       <c r="L7">
-        <v>0.960433311743817</v>
+        <v>1.093716945071645</v>
       </c>
       <c r="M7">
-        <v>0.9644799846576502</v>
+        <v>1.09990374055503</v>
       </c>
       <c r="N7">
-        <v>0.9524735326127405</v>
+        <v>1.097444441682611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8805849737356551</v>
+        <v>1.08627020751111</v>
       </c>
       <c r="D8">
-        <v>1.029544093645104</v>
+        <v>1.039062560557335</v>
       </c>
       <c r="E8">
-        <v>0.9063394871722595</v>
+        <v>1.086632516861617</v>
       </c>
       <c r="F8">
-        <v>0.9088477304767688</v>
+        <v>1.092738218206823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041942431660305</v>
+        <v>1.038141841749576</v>
       </c>
       <c r="J8">
-        <v>0.9063320258321551</v>
+        <v>1.09100894580087</v>
       </c>
       <c r="K8">
-        <v>1.040338206933429</v>
+        <v>1.041785547481764</v>
       </c>
       <c r="L8">
-        <v>0.9189577314082122</v>
+        <v>1.089229662064851</v>
       </c>
       <c r="M8">
-        <v>0.9214224619355926</v>
+        <v>1.095320066392752</v>
       </c>
       <c r="N8">
-        <v>0.9076191212665731</v>
+        <v>1.092558303644382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8805849737356551</v>
+        <v>1.076615796294666</v>
       </c>
       <c r="D9">
-        <v>1.029544093645104</v>
+        <v>1.037310509578162</v>
       </c>
       <c r="E9">
-        <v>0.9063394871722595</v>
+        <v>1.078062959753311</v>
       </c>
       <c r="F9">
-        <v>0.9088477304767688</v>
+        <v>1.083977756746222</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041942431660305</v>
+        <v>1.037199653689209</v>
       </c>
       <c r="J9">
-        <v>0.9063320258321551</v>
+        <v>1.082171791088011</v>
       </c>
       <c r="K9">
-        <v>1.040338206933429</v>
+        <v>1.040468818223279</v>
       </c>
       <c r="L9">
-        <v>0.9189577314082122</v>
+        <v>1.081094163641789</v>
       </c>
       <c r="M9">
-        <v>0.9214224619355926</v>
+        <v>1.086991377974146</v>
       </c>
       <c r="N9">
-        <v>0.9076191212665731</v>
+        <v>1.083708599158196</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8805849737356551</v>
+        <v>1.069998379118075</v>
       </c>
       <c r="D10">
-        <v>1.029544093645104</v>
+        <v>1.036107347683629</v>
       </c>
       <c r="E10">
-        <v>0.9063394871722595</v>
+        <v>1.072182018535426</v>
       </c>
       <c r="F10">
-        <v>0.9088477304767688</v>
+        <v>1.077953252715062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041942431660305</v>
+        <v>1.036531009732928</v>
       </c>
       <c r="J10">
-        <v>0.9063320258321551</v>
+        <v>1.076104505182689</v>
       </c>
       <c r="K10">
-        <v>1.040338206933429</v>
+        <v>1.03955256276124</v>
       </c>
       <c r="L10">
-        <v>0.9189577314082122</v>
+        <v>1.075503135914606</v>
       </c>
       <c r="M10">
-        <v>0.9214224619355926</v>
+        <v>1.081255362524539</v>
       </c>
       <c r="N10">
-        <v>0.9076191212665731</v>
+        <v>1.07763269701096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8805849737356551</v>
+        <v>1.067086233371979</v>
       </c>
       <c r="D11">
-        <v>1.029544093645104</v>
+        <v>1.035577648003339</v>
       </c>
       <c r="E11">
-        <v>0.9063394871722595</v>
+        <v>1.069592328018854</v>
       </c>
       <c r="F11">
-        <v>0.9088477304767688</v>
+        <v>1.075297406915423</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041942431660305</v>
+        <v>1.036231496529989</v>
       </c>
       <c r="J11">
-        <v>0.9063320258321551</v>
+        <v>1.073432089192601</v>
       </c>
       <c r="K11">
-        <v>1.040338206933429</v>
+        <v>1.039146317994334</v>
       </c>
       <c r="L11">
-        <v>0.9189577314082122</v>
+        <v>1.073039209055765</v>
       </c>
       <c r="M11">
-        <v>0.9214224619355926</v>
+        <v>1.078724691401314</v>
       </c>
       <c r="N11">
-        <v>0.9076191212665731</v>
+        <v>1.074956485883637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8805849737356551</v>
+        <v>1.065997169480866</v>
       </c>
       <c r="D12">
-        <v>1.029544093645104</v>
+        <v>1.035379548455493</v>
       </c>
       <c r="E12">
-        <v>0.9063394871722595</v>
+        <v>1.068623609650752</v>
       </c>
       <c r="F12">
-        <v>0.9088477304767688</v>
+        <v>1.074303504248322</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041942431660305</v>
+        <v>1.036118709882874</v>
       </c>
       <c r="J12">
-        <v>0.9063320258321551</v>
+        <v>1.072432323237293</v>
       </c>
       <c r="K12">
-        <v>1.040338206933429</v>
+        <v>1.038993958834565</v>
       </c>
       <c r="L12">
-        <v>0.9189577314082122</v>
+        <v>1.072117248223402</v>
       </c>
       <c r="M12">
-        <v>0.9214224619355926</v>
+        <v>1.077777332112458</v>
       </c>
       <c r="N12">
-        <v>0.9076191212665731</v>
+        <v>1.073955300145997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8805849737356551</v>
+        <v>1.066231116198979</v>
       </c>
       <c r="D13">
-        <v>1.029544093645104</v>
+        <v>1.035422102951317</v>
       </c>
       <c r="E13">
-        <v>0.9063394871722595</v>
+        <v>1.06883171537914</v>
       </c>
       <c r="F13">
-        <v>0.9088477304767688</v>
+        <v>1.07451703994968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041942431660305</v>
+        <v>1.036142972986677</v>
       </c>
       <c r="J13">
-        <v>0.9063320258321551</v>
+        <v>1.072647103470495</v>
       </c>
       <c r="K13">
-        <v>1.040338206933429</v>
+        <v>1.039026707113959</v>
       </c>
       <c r="L13">
-        <v>0.9189577314082122</v>
+        <v>1.072315322194588</v>
       </c>
       <c r="M13">
-        <v>0.9214224619355926</v>
+        <v>1.077980881778464</v>
       </c>
       <c r="N13">
-        <v>0.9076191212665731</v>
+        <v>1.074170385391765</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8805849737356551</v>
+        <v>1.066996363232777</v>
       </c>
       <c r="D14">
-        <v>1.029544093645104</v>
+        <v>1.035561300689946</v>
       </c>
       <c r="E14">
-        <v>0.9063394871722595</v>
+        <v>1.069512393803589</v>
       </c>
       <c r="F14">
-        <v>0.9088477304767688</v>
+        <v>1.075215403497487</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041942431660305</v>
+        <v>1.036222205047924</v>
       </c>
       <c r="J14">
-        <v>0.9063320258321551</v>
+        <v>1.073349595176366</v>
       </c>
       <c r="K14">
-        <v>1.040338206933429</v>
+        <v>1.039133753964179</v>
       </c>
       <c r="L14">
-        <v>0.9189577314082122</v>
+        <v>1.072963138896663</v>
       </c>
       <c r="M14">
-        <v>0.9214224619355926</v>
+        <v>1.078646534240618</v>
       </c>
       <c r="N14">
-        <v>0.9076191212665731</v>
+        <v>1.074873874716435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8805849737356551</v>
+        <v>1.067466871088977</v>
       </c>
       <c r="D15">
-        <v>1.029544093645104</v>
+        <v>1.035646885639146</v>
       </c>
       <c r="E15">
-        <v>0.9063394871722595</v>
+        <v>1.069930872987618</v>
       </c>
       <c r="F15">
-        <v>0.9088477304767688</v>
+        <v>1.075644697710983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041942431660305</v>
+        <v>1.036270818209021</v>
       </c>
       <c r="J15">
-        <v>0.9063320258321551</v>
+        <v>1.073781471465241</v>
       </c>
       <c r="K15">
-        <v>1.040338206933429</v>
+        <v>1.039199514300641</v>
       </c>
       <c r="L15">
-        <v>0.9189577314082122</v>
+        <v>1.073361376900734</v>
       </c>
       <c r="M15">
-        <v>0.9214224619355926</v>
+        <v>1.079055680710644</v>
       </c>
       <c r="N15">
-        <v>0.9076191212665731</v>
+        <v>1.075306364319177</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8805849737356551</v>
+        <v>1.070190634967806</v>
       </c>
       <c r="D16">
-        <v>1.029544093645104</v>
+        <v>1.036142315384538</v>
       </c>
       <c r="E16">
-        <v>0.9063394871722595</v>
+        <v>1.072352952137795</v>
       </c>
       <c r="F16">
-        <v>0.9088477304767688</v>
+        <v>1.078128491753353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041942431660305</v>
+        <v>1.036550674198883</v>
       </c>
       <c r="J16">
-        <v>0.9063320258321551</v>
+        <v>1.076280884937667</v>
       </c>
       <c r="K16">
-        <v>1.040338206933429</v>
+        <v>1.039579320831304</v>
       </c>
       <c r="L16">
-        <v>0.9189577314082122</v>
+        <v>1.075665728575035</v>
       </c>
       <c r="M16">
-        <v>0.9214224619355926</v>
+        <v>1.081422300334221</v>
       </c>
       <c r="N16">
-        <v>0.9076191212665731</v>
+        <v>1.077809327245421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8805849737356551</v>
+        <v>1.071886427437968</v>
       </c>
       <c r="D17">
-        <v>1.029544093645104</v>
+        <v>1.036450725943071</v>
       </c>
       <c r="E17">
-        <v>0.9063394871722595</v>
+        <v>1.073860483426793</v>
       </c>
       <c r="F17">
-        <v>0.9088477304767688</v>
+        <v>1.079673658525686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041942431660305</v>
+        <v>1.036723523628469</v>
       </c>
       <c r="J17">
-        <v>0.9063320258321551</v>
+        <v>1.077836371237646</v>
       </c>
       <c r="K17">
-        <v>1.040338206933429</v>
+        <v>1.039814996224316</v>
       </c>
       <c r="L17">
-        <v>0.9189577314082122</v>
+        <v>1.077099480036738</v>
       </c>
       <c r="M17">
-        <v>0.9214224619355926</v>
+        <v>1.082894041979296</v>
       </c>
       <c r="N17">
-        <v>0.9076191212665731</v>
+        <v>1.079367022514363</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8805849737356551</v>
+        <v>1.072871066465231</v>
       </c>
       <c r="D18">
-        <v>1.029544093645104</v>
+        <v>1.03662977746123</v>
       </c>
       <c r="E18">
-        <v>0.9063394871722595</v>
+        <v>1.074735653430601</v>
       </c>
       <c r="F18">
-        <v>0.9088477304767688</v>
+        <v>1.080570396353827</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041942431660305</v>
+        <v>1.036823382656899</v>
       </c>
       <c r="J18">
-        <v>0.9063320258321551</v>
+        <v>1.078739317003574</v>
       </c>
       <c r="K18">
-        <v>1.040338206933429</v>
+        <v>1.039951547498354</v>
       </c>
       <c r="L18">
-        <v>0.9189577314082122</v>
+        <v>1.077931637010522</v>
       </c>
       <c r="M18">
-        <v>0.9214224619355926</v>
+        <v>1.083747976342384</v>
       </c>
       <c r="N18">
-        <v>0.9076191212665731</v>
+        <v>1.080271250566849</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8805849737356551</v>
+        <v>1.073206051676999</v>
       </c>
       <c r="D19">
-        <v>1.029544093645104</v>
+        <v>1.036690688100764</v>
       </c>
       <c r="E19">
-        <v>0.9063394871722595</v>
+        <v>1.075033369201388</v>
       </c>
       <c r="F19">
-        <v>0.9088477304767688</v>
+        <v>1.080875401349072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041942431660305</v>
+        <v>1.036857269979698</v>
       </c>
       <c r="J19">
-        <v>0.9063320258321551</v>
+        <v>1.079046470819426</v>
       </c>
       <c r="K19">
-        <v>1.040338206933429</v>
+        <v>1.039997953906867</v>
       </c>
       <c r="L19">
-        <v>0.9189577314082122</v>
+        <v>1.078214689832484</v>
       </c>
       <c r="M19">
-        <v>0.9214224619355926</v>
+        <v>1.084038390286606</v>
       </c>
       <c r="N19">
-        <v>0.9076191212665731</v>
+        <v>1.08057884057635</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8805849737356551</v>
+        <v>1.071704951564205</v>
       </c>
       <c r="D20">
-        <v>1.029544093645104</v>
+        <v>1.036417723452654</v>
       </c>
       <c r="E20">
-        <v>0.9063394871722595</v>
+        <v>1.073699170710889</v>
       </c>
       <c r="F20">
-        <v>0.9088477304767688</v>
+        <v>1.079508347711822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041942431660305</v>
+        <v>1.036705078172441</v>
       </c>
       <c r="J20">
-        <v>0.9063320258321551</v>
+        <v>1.077669933729416</v>
       </c>
       <c r="K20">
-        <v>1.040338206933429</v>
+        <v>1.039789805288013</v>
       </c>
       <c r="L20">
-        <v>0.9189577314082122</v>
+        <v>1.076946080911823</v>
       </c>
       <c r="M20">
-        <v>0.9214224619355926</v>
+        <v>1.082736606420949</v>
       </c>
       <c r="N20">
-        <v>0.9076191212665731</v>
+        <v>1.079200348645781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8805849737356551</v>
+        <v>1.066771223116088</v>
       </c>
       <c r="D21">
-        <v>1.029544093645104</v>
+        <v>1.035520347858675</v>
       </c>
       <c r="E21">
-        <v>0.9063394871722595</v>
+        <v>1.069312140957718</v>
       </c>
       <c r="F21">
-        <v>0.9088477304767688</v>
+        <v>1.075009959794417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041942431660305</v>
+        <v>1.03619891581051</v>
       </c>
       <c r="J21">
-        <v>0.9063320258321551</v>
+        <v>1.073142927800019</v>
       </c>
       <c r="K21">
-        <v>1.040338206933429</v>
+        <v>1.039102271973123</v>
       </c>
       <c r="L21">
-        <v>0.9189577314082122</v>
+        <v>1.072772561739974</v>
       </c>
       <c r="M21">
-        <v>0.9214224619355926</v>
+        <v>1.078450721737165</v>
       </c>
       <c r="N21">
-        <v>0.9076191212665731</v>
+        <v>1.074666913848709</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8805849737356551</v>
+        <v>1.063626410868246</v>
       </c>
       <c r="D22">
-        <v>1.029544093645104</v>
+        <v>1.034948328802041</v>
       </c>
       <c r="E22">
-        <v>0.9063394871722595</v>
+        <v>1.066514384867867</v>
       </c>
       <c r="F22">
-        <v>0.9088477304767688</v>
+        <v>1.072138645482657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041942431660305</v>
+        <v>1.03587177747157</v>
       </c>
       <c r="J22">
-        <v>0.9063320258321551</v>
+        <v>1.070255306398869</v>
       </c>
       <c r="K22">
-        <v>1.040338206933429</v>
+        <v>1.038661516714318</v>
       </c>
       <c r="L22">
-        <v>0.9189577314082122</v>
+        <v>1.070109303518949</v>
       </c>
       <c r="M22">
-        <v>0.9214224619355926</v>
+        <v>1.075713298859841</v>
       </c>
       <c r="N22">
-        <v>0.9076191212665731</v>
+        <v>1.071775191693955</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8805849737356551</v>
+        <v>1.065297707764219</v>
       </c>
       <c r="D23">
-        <v>1.029544093645104</v>
+        <v>1.035252318796615</v>
       </c>
       <c r="E23">
-        <v>0.9063394871722595</v>
+        <v>1.06800137272257</v>
       </c>
       <c r="F23">
-        <v>0.9088477304767688</v>
+        <v>1.073664967819071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041942431660305</v>
+        <v>1.036046054519033</v>
       </c>
       <c r="J23">
-        <v>0.9063320258321551</v>
+        <v>1.071790114286683</v>
       </c>
       <c r="K23">
-        <v>1.040338206933429</v>
+        <v>1.038895984829225</v>
       </c>
       <c r="L23">
-        <v>0.9189577314082122</v>
+        <v>1.071524964239248</v>
       </c>
       <c r="M23">
-        <v>0.9214224619355926</v>
+        <v>1.077168612850808</v>
       </c>
       <c r="N23">
-        <v>0.9076191212665731</v>
+        <v>1.073312179185015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8805849737356551</v>
+        <v>1.071786966545837</v>
       </c>
       <c r="D24">
-        <v>1.029544093645104</v>
+        <v>1.03643263844845</v>
       </c>
       <c r="E24">
-        <v>0.9063394871722595</v>
+        <v>1.073772073779601</v>
       </c>
       <c r="F24">
-        <v>0.9088477304767688</v>
+        <v>1.079583058535718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041942431660305</v>
+        <v>1.036713415847831</v>
       </c>
       <c r="J24">
-        <v>0.9063320258321551</v>
+        <v>1.077745153074621</v>
       </c>
       <c r="K24">
-        <v>1.040338206933429</v>
+        <v>1.039801190810618</v>
       </c>
       <c r="L24">
-        <v>0.9189577314082122</v>
+        <v>1.077015408103551</v>
       </c>
       <c r="M24">
-        <v>0.9214224619355926</v>
+        <v>1.082807758681778</v>
       </c>
       <c r="N24">
-        <v>0.9076191212665731</v>
+        <v>1.079275674811084</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8805849737356551</v>
+        <v>1.07914240065816</v>
       </c>
       <c r="D25">
-        <v>1.029544093645104</v>
+        <v>1.037769524430211</v>
       </c>
       <c r="E25">
-        <v>0.9063394871722595</v>
+        <v>1.080306903480079</v>
       </c>
       <c r="F25">
-        <v>0.9088477304767688</v>
+        <v>1.086273885183779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041942431660305</v>
+        <v>1.037450253768617</v>
       </c>
       <c r="J25">
-        <v>0.9063320258321551</v>
+        <v>1.084486266824293</v>
       </c>
       <c r="K25">
-        <v>1.040338206933429</v>
+        <v>1.040815876895453</v>
       </c>
       <c r="L25">
-        <v>0.9189577314082122</v>
+        <v>1.083225829821006</v>
       </c>
       <c r="M25">
-        <v>0.9214224619355926</v>
+        <v>1.089175803823032</v>
       </c>
       <c r="N25">
-        <v>0.9076191212665731</v>
+        <v>1.086026361715497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.084879506803141</v>
+        <v>0.8650909063060989</v>
       </c>
       <c r="D2">
-        <v>1.038810547279591</v>
+        <v>1.026954000072844</v>
       </c>
       <c r="E2">
-        <v>1.085398911711135</v>
+        <v>0.8927084485692394</v>
       </c>
       <c r="F2">
-        <v>1.091478575385711</v>
+        <v>0.8947208639187779</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038008778151634</v>
+        <v>1.039881951618153</v>
       </c>
       <c r="J2">
-        <v>1.089737117956965</v>
+        <v>0.8922204793098304</v>
       </c>
       <c r="K2">
-        <v>1.041597520056828</v>
+        <v>1.038050172554722</v>
       </c>
       <c r="L2">
-        <v>1.088059443004813</v>
+        <v>0.9058968017420344</v>
       </c>
       <c r="M2">
-        <v>1.094123465823692</v>
+        <v>0.9078718114449469</v>
       </c>
       <c r="N2">
-        <v>1.091284669659058</v>
+        <v>0.8934875347295698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.088975364921588</v>
+        <v>0.9071404845240343</v>
       </c>
       <c r="D3">
-        <v>1.039552306659291</v>
+        <v>1.034140530506284</v>
       </c>
       <c r="E3">
-        <v>1.08903124411268</v>
+        <v>0.929741833336206</v>
       </c>
       <c r="F3">
-        <v>1.095186091022087</v>
+        <v>0.9331097811898927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038397919137442</v>
+        <v>1.04552430529859</v>
       </c>
       <c r="J3">
-        <v>1.093481699485741</v>
+        <v>0.9305279728506589</v>
       </c>
       <c r="K3">
-        <v>1.042149549683819</v>
+        <v>1.044354445758298</v>
       </c>
       <c r="L3">
-        <v>1.091504218873795</v>
+        <v>0.941360283061449</v>
       </c>
       <c r="M3">
-        <v>1.097644451205149</v>
+        <v>0.9446766699360533</v>
       </c>
       <c r="N3">
-        <v>1.095034568923114</v>
+        <v>0.9318494293051572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.091595031847798</v>
+        <v>0.9296217046436737</v>
       </c>
       <c r="D4">
-        <v>1.040025909496182</v>
+        <v>1.03817878525981</v>
       </c>
       <c r="E4">
-        <v>1.091353050600565</v>
+        <v>0.9495856584645737</v>
       </c>
       <c r="F4">
-        <v>1.097553529568642</v>
+        <v>0.9536844957633016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038642292731002</v>
+        <v>1.048594060361211</v>
       </c>
       <c r="J4">
-        <v>1.095874777686565</v>
+        <v>0.9510147277505817</v>
       </c>
       <c r="K4">
-        <v>1.04249973553488</v>
+        <v>1.047837268181619</v>
       </c>
       <c r="L4">
-        <v>1.09370464723996</v>
+        <v>0.9603331933693436</v>
       </c>
       <c r="M4">
-        <v>1.099891189306663</v>
+        <v>0.9643760324184437</v>
       </c>
       <c r="N4">
-        <v>1.097431045569474</v>
+        <v>0.9523652777469014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.092689243563364</v>
+        <v>0.9382948916665332</v>
       </c>
       <c r="D5">
-        <v>1.040223511489554</v>
+        <v>1.039770751034154</v>
       </c>
       <c r="E5">
-        <v>1.092322511795931</v>
+        <v>0.9572475911721375</v>
       </c>
       <c r="F5">
-        <v>1.098541459665494</v>
+        <v>0.9616276381288357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038743271890845</v>
+        <v>1.049784513736989</v>
       </c>
       <c r="J5">
-        <v>1.09687388509596</v>
+        <v>0.9589176918696295</v>
       </c>
       <c r="K5">
-        <v>1.042645297288717</v>
+        <v>1.049198574461013</v>
       </c>
       <c r="L5">
-        <v>1.09462307074679</v>
+        <v>0.9676525737473713</v>
       </c>
       <c r="M5">
-        <v>1.100828369573772</v>
+        <v>0.9719754859227777</v>
       </c>
       <c r="N5">
-        <v>1.098431571825989</v>
+        <v>0.960279464981481</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.092872557105121</v>
+        <v>0.9397121681927116</v>
       </c>
       <c r="D6">
-        <v>1.040256602390052</v>
+        <v>1.040032626578007</v>
       </c>
       <c r="E6">
-        <v>1.092484905999227</v>
+        <v>0.9584999025280631</v>
       </c>
       <c r="F6">
-        <v>1.098706913167426</v>
+        <v>0.9629258136790135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038760124427132</v>
+        <v>1.049979270452005</v>
       </c>
       <c r="J6">
-        <v>1.097041238741462</v>
+        <v>0.9602090196291919</v>
       </c>
       <c r="K6">
-        <v>1.042669641262086</v>
+        <v>1.049421870777141</v>
       </c>
       <c r="L6">
-        <v>1.094776894710153</v>
+        <v>0.9688485433750684</v>
       </c>
       <c r="M6">
-        <v>1.100985301333921</v>
+        <v>0.9732171641734036</v>
       </c>
       <c r="N6">
-        <v>1.098599163132864</v>
+        <v>0.961572626574579</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.091609680334241</v>
+        <v>0.9297403358806794</v>
       </c>
       <c r="D7">
-        <v>1.040028555729837</v>
+        <v>1.038200435501276</v>
       </c>
       <c r="E7">
-        <v>1.091366030351441</v>
+        <v>0.9496904367265934</v>
       </c>
       <c r="F7">
-        <v>1.097566758901082</v>
+        <v>0.9537931255821281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038643648888064</v>
+        <v>1.048610325013537</v>
       </c>
       <c r="J7">
-        <v>1.095888154802663</v>
+        <v>0.9511228291001012</v>
       </c>
       <c r="K7">
-        <v>1.042501687016725</v>
+        <v>1.047855825982077</v>
       </c>
       <c r="L7">
-        <v>1.093716945071645</v>
+        <v>0.9604333117438134</v>
       </c>
       <c r="M7">
-        <v>1.09990374055503</v>
+        <v>0.9644799846576468</v>
       </c>
       <c r="N7">
-        <v>1.097444441682611</v>
+        <v>0.9524735326127366</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.08627020751111</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D8">
-        <v>1.039062560557335</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E8">
-        <v>1.086632516861617</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F8">
-        <v>1.092738218206823</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038141841749576</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J8">
-        <v>1.09100894580087</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K8">
-        <v>1.041785547481764</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L8">
-        <v>1.089229662064851</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M8">
-        <v>1.095320066392752</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N8">
-        <v>1.092558303644382</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.076615796294666</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D9">
-        <v>1.037310509578162</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E9">
-        <v>1.078062959753311</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F9">
-        <v>1.083977756746222</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037199653689209</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J9">
-        <v>1.082171791088011</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K9">
-        <v>1.040468818223279</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L9">
-        <v>1.081094163641789</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M9">
-        <v>1.086991377974146</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N9">
-        <v>1.083708599158196</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069998379118075</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D10">
-        <v>1.036107347683629</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E10">
-        <v>1.072182018535426</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F10">
-        <v>1.077953252715062</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036531009732928</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J10">
-        <v>1.076104505182689</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K10">
-        <v>1.03955256276124</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L10">
-        <v>1.075503135914606</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M10">
-        <v>1.081255362524539</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N10">
-        <v>1.07763269701096</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067086233371979</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D11">
-        <v>1.035577648003339</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E11">
-        <v>1.069592328018854</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F11">
-        <v>1.075297406915423</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036231496529989</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J11">
-        <v>1.073432089192601</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K11">
-        <v>1.039146317994334</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L11">
-        <v>1.073039209055765</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M11">
-        <v>1.078724691401314</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N11">
-        <v>1.074956485883637</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.065997169480866</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D12">
-        <v>1.035379548455493</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E12">
-        <v>1.068623609650752</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F12">
-        <v>1.074303504248322</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036118709882874</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J12">
-        <v>1.072432323237293</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K12">
-        <v>1.038993958834565</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L12">
-        <v>1.072117248223402</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M12">
-        <v>1.077777332112458</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N12">
-        <v>1.073955300145997</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066231116198979</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D13">
-        <v>1.035422102951317</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E13">
-        <v>1.06883171537914</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F13">
-        <v>1.07451703994968</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036142972986677</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J13">
-        <v>1.072647103470495</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K13">
-        <v>1.039026707113959</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L13">
-        <v>1.072315322194588</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M13">
-        <v>1.077980881778464</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N13">
-        <v>1.074170385391765</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066996363232777</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D14">
-        <v>1.035561300689946</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E14">
-        <v>1.069512393803589</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F14">
-        <v>1.075215403497487</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036222205047924</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J14">
-        <v>1.073349595176366</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K14">
-        <v>1.039133753964179</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L14">
-        <v>1.072963138896663</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M14">
-        <v>1.078646534240618</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N14">
-        <v>1.074873874716435</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067466871088977</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D15">
-        <v>1.035646885639146</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E15">
-        <v>1.069930872987618</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F15">
-        <v>1.075644697710983</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036270818209021</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J15">
-        <v>1.073781471465241</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K15">
-        <v>1.039199514300641</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L15">
-        <v>1.073361376900734</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M15">
-        <v>1.079055680710644</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N15">
-        <v>1.075306364319177</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070190634967806</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D16">
-        <v>1.036142315384538</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E16">
-        <v>1.072352952137795</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F16">
-        <v>1.078128491753353</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036550674198883</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J16">
-        <v>1.076280884937667</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K16">
-        <v>1.039579320831304</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L16">
-        <v>1.075665728575035</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M16">
-        <v>1.081422300334221</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N16">
-        <v>1.077809327245421</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.071886427437968</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D17">
-        <v>1.036450725943071</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E17">
-        <v>1.073860483426793</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F17">
-        <v>1.079673658525686</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036723523628469</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J17">
-        <v>1.077836371237646</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K17">
-        <v>1.039814996224316</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L17">
-        <v>1.077099480036738</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M17">
-        <v>1.082894041979296</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N17">
-        <v>1.079367022514363</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072871066465231</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D18">
-        <v>1.03662977746123</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E18">
-        <v>1.074735653430601</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F18">
-        <v>1.080570396353827</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036823382656899</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J18">
-        <v>1.078739317003574</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K18">
-        <v>1.039951547498354</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L18">
-        <v>1.077931637010522</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M18">
-        <v>1.083747976342384</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N18">
-        <v>1.080271250566849</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073206051676999</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D19">
-        <v>1.036690688100764</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E19">
-        <v>1.075033369201388</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F19">
-        <v>1.080875401349072</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036857269979698</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J19">
-        <v>1.079046470819426</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K19">
-        <v>1.039997953906867</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L19">
-        <v>1.078214689832484</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M19">
-        <v>1.084038390286606</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N19">
-        <v>1.08057884057635</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071704951564205</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D20">
-        <v>1.036417723452654</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E20">
-        <v>1.073699170710889</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F20">
-        <v>1.079508347711822</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036705078172441</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J20">
-        <v>1.077669933729416</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K20">
-        <v>1.039789805288013</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L20">
-        <v>1.076946080911823</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M20">
-        <v>1.082736606420949</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N20">
-        <v>1.079200348645781</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066771223116088</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D21">
-        <v>1.035520347858675</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E21">
-        <v>1.069312140957718</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F21">
-        <v>1.075009959794417</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03619891581051</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J21">
-        <v>1.073142927800019</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K21">
-        <v>1.039102271973123</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L21">
-        <v>1.072772561739974</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M21">
-        <v>1.078450721737165</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N21">
-        <v>1.074666913848709</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063626410868246</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D22">
-        <v>1.034948328802041</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E22">
-        <v>1.066514384867867</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F22">
-        <v>1.072138645482657</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03587177747157</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J22">
-        <v>1.070255306398869</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K22">
-        <v>1.038661516714318</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L22">
-        <v>1.070109303518949</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M22">
-        <v>1.075713298859841</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N22">
-        <v>1.071775191693955</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065297707764219</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D23">
-        <v>1.035252318796615</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E23">
-        <v>1.06800137272257</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F23">
-        <v>1.073664967819071</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036046054519033</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J23">
-        <v>1.071790114286683</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K23">
-        <v>1.038895984829225</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L23">
-        <v>1.071524964239248</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M23">
-        <v>1.077168612850808</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N23">
-        <v>1.073312179185015</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071786966545837</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D24">
-        <v>1.03643263844845</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E24">
-        <v>1.073772073779601</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F24">
-        <v>1.079583058535718</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036713415847831</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J24">
-        <v>1.077745153074621</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K24">
-        <v>1.039801190810618</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L24">
-        <v>1.077015408103551</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M24">
-        <v>1.082807758681778</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N24">
-        <v>1.079275674811084</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.07914240065816</v>
+        <v>0.8805849737356567</v>
       </c>
       <c r="D25">
-        <v>1.037769524430211</v>
+        <v>1.029544093645104</v>
       </c>
       <c r="E25">
-        <v>1.080306903480079</v>
+        <v>0.9063394871722608</v>
       </c>
       <c r="F25">
-        <v>1.086273885183779</v>
+        <v>0.90884773047677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037450253768617</v>
+        <v>1.041942431660305</v>
       </c>
       <c r="J25">
-        <v>1.084486266824293</v>
+        <v>0.9063320258321564</v>
       </c>
       <c r="K25">
-        <v>1.040815876895453</v>
+        <v>1.04033820693343</v>
       </c>
       <c r="L25">
-        <v>1.083225829821006</v>
+        <v>0.9189577314082136</v>
       </c>
       <c r="M25">
-        <v>1.089175803823032</v>
+        <v>0.9214224619355937</v>
       </c>
       <c r="N25">
-        <v>1.086026361715497</v>
+        <v>0.9076191212665746</v>
       </c>
     </row>
   </sheetData>
